--- a/materials/AIPD/jelenlet/jelenlet_2024.xlsx
+++ b/materials/AIPD/jelenlet/jelenlet_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\AIPD\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A8B5C0-7AF6-4859-B897-C6AF44D12F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A039087B-0FFB-4419-9DE8-42FD2ABEBC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
@@ -823,7 +823,7 @@
     <col min="2" max="2" width="1.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="1.140625" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
     <col min="6" max="6" width="1.140625" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1087,7 +1087,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="19">
         <f ca="1">NOW()</f>
-        <v>45568.401861342594</v>
+        <v>45572.618230671294</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>

--- a/materials/AIPD/jelenlet/jelenlet_2024.xlsx
+++ b/materials/AIPD/jelenlet/jelenlet_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\AIPD\jelenlet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lrobert\Downloads\deik\me\materials\AIPD\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A039087B-0FFB-4419-9DE8-42FD2ABEBC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB42E31-8EA7-4B38-9F93-5BFD34D3CE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -406,12 +406,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -430,6 +427,9 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -461,7 +461,7 @@
     <sortCondition ref="A3:A18"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="0"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2024.09.09" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.09.09])</totalsRowFormula>
     </tableColumn>
@@ -501,7 +501,7 @@
     <tableColumn id="14" xr3:uid="{B988FA89-1E4E-4372-AD4F-C4E869C0989B}" name="2024.12.09" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.12.09])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="0">
+    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="1">
       <calculatedColumnFormula>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Táblázat3[HIÁNYZÁS])</totalsRowFormula>
     </tableColumn>
@@ -512,9 +512,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 téma">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -552,7 +552,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -658,7 +658,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -800,7 +800,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -813,22 +813,22 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
-    <col min="2" max="2" width="1.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="1.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="1.140625" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1796875" customWidth="1"/>
+    <col min="2" max="2" width="1.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+    <col min="4" max="4" width="1.1796875" customWidth="1"/>
+    <col min="5" max="5" width="25.7265625" customWidth="1"/>
+    <col min="6" max="6" width="1.1796875" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
@@ -839,7 +839,7 @@
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -856,7 +856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
@@ -870,7 +870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
@@ -898,7 +898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
@@ -912,7 +912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="42" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="42" x14ac:dyDescent="0.5">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
@@ -937,10 +937,10 @@
       <c r="F8" s="4"/>
       <c r="G8" s="16">
         <f>VLOOKUP(A8,Táblázat3[],15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
@@ -951,10 +951,10 @@
       <c r="F9" s="4"/>
       <c r="G9" s="16">
         <f>VLOOKUP(A9,Táblázat3[],15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="10" t="s">
         <v>25</v>
       </c>
@@ -965,10 +965,10 @@
       <c r="F10" s="4"/>
       <c r="G10" s="16">
         <f>VLOOKUP(A10,Táblázat3[],15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="10" t="s">
         <v>27</v>
       </c>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="42" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="42" x14ac:dyDescent="0.5">
       <c r="A12" s="10" t="s">
         <v>29</v>
       </c>
@@ -996,7 +996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="42" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="42" x14ac:dyDescent="0.5">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="42" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A14" s="10" t="s">
         <v>33</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="10" t="s">
         <v>35</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="10" t="s">
         <v>37</v>
       </c>
@@ -1049,10 +1049,10 @@
       <c r="F16" s="4"/>
       <c r="G16" s="16">
         <f>VLOOKUP(A16,Táblázat3[],15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="10" t="s">
         <v>39</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="10" t="s">
         <v>41</v>
       </c>
@@ -1080,25 +1080,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="19">
         <f ca="1">NOW()</f>
-        <v>45572.618230671294</v>
+        <v>45575.682697453703</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C20" s="2"/>
       <c r="D20" s="1"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
@@ -1107,7 +1107,7 @@
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E22" s="21" t="s">
         <v>3</v>
       </c>
@@ -1133,23 +1133,23 @@
   </sheetPr>
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="22">
         <v>2023</v>
       </c>
@@ -1169,7 +1169,7 @@
       <c r="O1" s="22"/>
       <c r="P1" s="22"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="Q5" s="4"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1524,14 +1524,14 @@
       </c>
       <c r="O8">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="s">
         <v>22</v>
       </c>
       <c r="Q8" s="4"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1576,14 +1576,14 @@
       </c>
       <c r="O9">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="s">
         <v>24</v>
       </c>
       <c r="Q9" s="4"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1628,14 +1628,14 @@
       </c>
       <c r="O10">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="s">
         <v>26</v>
       </c>
       <c r="Q10" s="4"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="Q11" s="4"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="Q12" s="4"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="Q13" s="4"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="Q14" s="4"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="Q15" s="4"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1940,14 +1940,14 @@
       </c>
       <c r="O16">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="s">
         <v>38</v>
       </c>
       <c r="Q16" s="4"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="Q17" s="4"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="Q18" s="4"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>10</v>
       </c>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="F19">
         <f>SUM(Táblázat3[2024.10.07])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G19">
         <f>SUM(Táblázat3[2024.10.14])</f>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="O19">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/materials/AIPD/jelenlet/jelenlet_2024.xlsx
+++ b/materials/AIPD/jelenlet/jelenlet_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lrobert\Downloads\deik\me\materials\AIPD\jelenlet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\AIPD\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB42E31-8EA7-4B38-9F93-5BFD34D3CE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC85F73B-2F39-409F-A7CB-01D0B5AA2774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -61,149 +61,149 @@
     <t>H</t>
   </si>
   <si>
-    <t>A MESTERSÉGES INTELLIGENCIA ALAPJAI
+    <t>NK</t>
+  </si>
+  <si>
+    <t>CHEKSUM</t>
+  </si>
+  <si>
+    <t>Agaba Habeeb Titilope</t>
+  </si>
+  <si>
+    <t>HGWX5L</t>
+  </si>
+  <si>
+    <t>Aijaz Kainat</t>
+  </si>
+  <si>
+    <t>R1J01U</t>
+  </si>
+  <si>
+    <t>Cibei Niccolo</t>
+  </si>
+  <si>
+    <t>ZNJRFK</t>
+  </si>
+  <si>
+    <t>Fehér Lantos Sebestyén</t>
+  </si>
+  <si>
+    <t>CJGIH0</t>
+  </si>
+  <si>
+    <t>Gunduz Murad Osman Oglu</t>
+  </si>
+  <si>
+    <t>JQC9FL</t>
+  </si>
+  <si>
+    <t>Hamza Umair</t>
+  </si>
+  <si>
+    <t>NN2S7K</t>
+  </si>
+  <si>
+    <t>Khan Nasir</t>
+  </si>
+  <si>
+    <t>VHNFEJ</t>
+  </si>
+  <si>
+    <t>Kore Vaidehee Umesh</t>
+  </si>
+  <si>
+    <t>CZYJFC</t>
+  </si>
+  <si>
+    <t>Major Norbert</t>
+  </si>
+  <si>
+    <t>WNQ6E2</t>
+  </si>
+  <si>
+    <t>Mwarema Allan Katakasi</t>
+  </si>
+  <si>
+    <t>YOYKJX</t>
+  </si>
+  <si>
+    <t>Nabasinga Joan Mirembe</t>
+  </si>
+  <si>
+    <t>VSR7QE</t>
+  </si>
+  <si>
+    <t>Nguyen Phan My Duyen</t>
+  </si>
+  <si>
+    <t>FC18Q2</t>
+  </si>
+  <si>
+    <t>Sirayon Sodowo</t>
+  </si>
+  <si>
+    <t>D659O1</t>
+  </si>
+  <si>
+    <t>Szabó Ákos</t>
+  </si>
+  <si>
+    <t>JRPJE5</t>
+  </si>
+  <si>
+    <t>T. Tóth Petra Nikolett</t>
+  </si>
+  <si>
+    <t>KU11SA</t>
+  </si>
+  <si>
+    <t>Zribi Abdelkarim</t>
+  </si>
+  <si>
+    <t>IJCZIU</t>
+  </si>
+  <si>
+    <t>2024.09.09</t>
+  </si>
+  <si>
+    <t>2024.09.16</t>
+  </si>
+  <si>
+    <t>2023.09.23</t>
+  </si>
+  <si>
+    <t>2024.09.30</t>
+  </si>
+  <si>
+    <t>2024.10.07</t>
+  </si>
+  <si>
+    <t>2024.10.14</t>
+  </si>
+  <si>
+    <t>2024.10.28</t>
+  </si>
+  <si>
+    <t>2024.11.04</t>
+  </si>
+  <si>
+    <t>2024.11.11</t>
+  </si>
+  <si>
+    <t>2024.11.18</t>
+  </si>
+  <si>
+    <t>2024.11.25</t>
+  </si>
+  <si>
+    <t>2024.12.02</t>
+  </si>
+  <si>
+    <t>2024.12.09</t>
+  </si>
+  <si>
+    <t>ARTIFICIAL INTELLIGENCE IN PLANNING AND DECISIONMAKING
 JELENLÉTI</t>
-  </si>
-  <si>
-    <t>NK</t>
-  </si>
-  <si>
-    <t>CHEKSUM</t>
-  </si>
-  <si>
-    <t>Agaba Habeeb Titilope</t>
-  </si>
-  <si>
-    <t>HGWX5L</t>
-  </si>
-  <si>
-    <t>Aijaz Kainat</t>
-  </si>
-  <si>
-    <t>R1J01U</t>
-  </si>
-  <si>
-    <t>Cibei Niccolo</t>
-  </si>
-  <si>
-    <t>ZNJRFK</t>
-  </si>
-  <si>
-    <t>Fehér Lantos Sebestyén</t>
-  </si>
-  <si>
-    <t>CJGIH0</t>
-  </si>
-  <si>
-    <t>Gunduz Murad Osman Oglu</t>
-  </si>
-  <si>
-    <t>JQC9FL</t>
-  </si>
-  <si>
-    <t>Hamza Umair</t>
-  </si>
-  <si>
-    <t>NN2S7K</t>
-  </si>
-  <si>
-    <t>Khan Nasir</t>
-  </si>
-  <si>
-    <t>VHNFEJ</t>
-  </si>
-  <si>
-    <t>Kore Vaidehee Umesh</t>
-  </si>
-  <si>
-    <t>CZYJFC</t>
-  </si>
-  <si>
-    <t>Major Norbert</t>
-  </si>
-  <si>
-    <t>WNQ6E2</t>
-  </si>
-  <si>
-    <t>Mwarema Allan Katakasi</t>
-  </si>
-  <si>
-    <t>YOYKJX</t>
-  </si>
-  <si>
-    <t>Nabasinga Joan Mirembe</t>
-  </si>
-  <si>
-    <t>VSR7QE</t>
-  </si>
-  <si>
-    <t>Nguyen Phan My Duyen</t>
-  </si>
-  <si>
-    <t>FC18Q2</t>
-  </si>
-  <si>
-    <t>Sirayon Sodowo</t>
-  </si>
-  <si>
-    <t>D659O1</t>
-  </si>
-  <si>
-    <t>Szabó Ákos</t>
-  </si>
-  <si>
-    <t>JRPJE5</t>
-  </si>
-  <si>
-    <t>T. Tóth Petra Nikolett</t>
-  </si>
-  <si>
-    <t>KU11SA</t>
-  </si>
-  <si>
-    <t>Zribi Abdelkarim</t>
-  </si>
-  <si>
-    <t>IJCZIU</t>
-  </si>
-  <si>
-    <t>2024.09.09</t>
-  </si>
-  <si>
-    <t>2024.09.16</t>
-  </si>
-  <si>
-    <t>2023.09.23</t>
-  </si>
-  <si>
-    <t>2024.09.30</t>
-  </si>
-  <si>
-    <t>2024.10.07</t>
-  </si>
-  <si>
-    <t>2024.10.14</t>
-  </si>
-  <si>
-    <t>2024.10.28</t>
-  </si>
-  <si>
-    <t>2024.11.04</t>
-  </si>
-  <si>
-    <t>2024.11.11</t>
-  </si>
-  <si>
-    <t>2024.11.18</t>
-  </si>
-  <si>
-    <t>2024.11.25</t>
-  </si>
-  <si>
-    <t>2024.12.02</t>
-  </si>
-  <si>
-    <t>2024.12.09</t>
   </si>
 </sst>
 </file>
@@ -406,9 +406,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -427,9 +430,6 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -461,7 +461,7 @@
     <sortCondition ref="A3:A18"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="1"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2024.09.09" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.09.09])</totalsRowFormula>
     </tableColumn>
@@ -501,7 +501,7 @@
     <tableColumn id="14" xr3:uid="{B988FA89-1E4E-4372-AD4F-C4E869C0989B}" name="2024.12.09" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.12.09])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="1">
+    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="0">
       <calculatedColumnFormula>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Táblázat3[HIÁNYZÁS])</totalsRowFormula>
     </tableColumn>
@@ -512,9 +512,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -552,7 +552,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -658,7 +658,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -800,7 +800,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -813,24 +813,24 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.1796875" customWidth="1"/>
-    <col min="2" max="2" width="1.26953125" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" customWidth="1"/>
-    <col min="4" max="4" width="1.1796875" customWidth="1"/>
-    <col min="5" max="5" width="25.7265625" customWidth="1"/>
-    <col min="6" max="6" width="1.1796875" customWidth="1"/>
-    <col min="7" max="7" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="1.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="1.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="1.140625" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -839,7 +839,7 @@
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -856,9 +856,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="6"/>
@@ -870,9 +870,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="6"/>
@@ -884,9 +884,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="6"/>
@@ -898,9 +898,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="5"/>
@@ -912,9 +912,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="42" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" ht="42" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="6"/>
@@ -926,9 +926,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="5"/>
@@ -940,9 +940,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="6"/>
@@ -954,9 +954,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="6"/>
@@ -968,9 +968,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="6"/>
@@ -982,9 +982,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="42" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" ht="42" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="6"/>
@@ -996,9 +996,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="42" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" ht="42" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="9"/>
@@ -1010,9 +1010,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" ht="42" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="9"/>
@@ -1021,12 +1021,12 @@
       <c r="F14" s="4"/>
       <c r="G14" s="16">
         <f>VLOOKUP(A14,Táblázat3[],15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="9"/>
@@ -1038,9 +1038,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="9"/>
@@ -1052,9 +1052,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="9"/>
@@ -1066,9 +1066,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="9"/>
@@ -1080,25 +1080,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="19">
         <f ca="1">NOW()</f>
-        <v>45575.682697453703</v>
+        <v>45586.570655208336</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C20" s="2"/>
       <c r="D20" s="1"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
@@ -1107,7 +1107,7 @@
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E22" s="21" t="s">
         <v>3</v>
       </c>
@@ -1133,23 +1133,23 @@
   </sheetPr>
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="22">
         <v>2023</v>
       </c>
@@ -1169,59 +1169,59 @@
       <c r="O1" s="22"/>
       <c r="P1" s="22"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="M2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="O2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1267,13 +1267,13 @@
         <v>2</v>
       </c>
       <c r="P3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>12</v>
-      </c>
-      <c r="Q3" s="4"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>13</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1319,13 +1319,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>14</v>
-      </c>
-      <c r="Q4" s="4"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>15</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1371,13 +1371,13 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>16</v>
-      </c>
-      <c r="Q5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>17</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q6" s="4"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>19</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1475,13 +1475,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>20</v>
-      </c>
-      <c r="Q7" s="4"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>21</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>22</v>
-      </c>
-      <c r="Q8" s="4"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>23</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>24</v>
-      </c>
-      <c r="Q9" s="4"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>25</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1631,13 +1631,13 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>26</v>
-      </c>
-      <c r="Q10" s="4"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>27</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1683,13 +1683,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>28</v>
-      </c>
-      <c r="Q11" s="4"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>29</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1735,13 +1735,13 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>30</v>
-      </c>
-      <c r="Q12" s="4"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>31</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1787,14 +1787,14 @@
         <v>0</v>
       </c>
       <c r="P13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="Q13" s="4"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
       <c r="B14">
         <v>0</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1836,16 +1836,16 @@
       </c>
       <c r="O14">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>34</v>
-      </c>
-      <c r="Q14" s="4"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>35</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1891,13 +1891,13 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>36</v>
-      </c>
-      <c r="Q15" s="4"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>37</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1943,13 +1943,13 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>38</v>
-      </c>
-      <c r="Q16" s="4"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>39</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1995,13 +1995,13 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>40</v>
-      </c>
-      <c r="Q17" s="4"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>41</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q18" s="4"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19">
         <f>SUM(Táblázat3[2024.09.09])</f>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="G19">
         <f>SUM(Táblázat3[2024.10.14])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <f>SUM(Táblázat3[2024.10.28])</f>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="O19">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/materials/AIPD/jelenlet/jelenlet_2024.xlsx
+++ b/materials/AIPD/jelenlet/jelenlet_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\AIPD\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC85F73B-2F39-409F-A7CB-01D0B5AA2774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7AA400-CAA3-4D4B-8576-2A9584C83B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
@@ -1087,7 +1087,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="19">
         <f ca="1">NOW()</f>
-        <v>45586.570655208336</v>
+        <v>45593.551332407405</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
@@ -1137,7 +1137,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,7 +1151,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="22">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>

--- a/materials/AIPD/jelenlet/jelenlet_2024.xlsx
+++ b/materials/AIPD/jelenlet/jelenlet_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\AIPD\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7AA400-CAA3-4D4B-8576-2A9584C83B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A1723F-D3AA-4D6E-9FBA-A10AE3B6A50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
@@ -203,7 +203,7 @@
   </si>
   <si>
     <t>ARTIFICIAL INTELLIGENCE IN PLANNING AND DECISIONMAKING
-JELENLÉTI</t>
+ATTENDANCE SHEET - 1618</t>
   </si>
 </sst>
 </file>
@@ -814,7 +814,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,7 +881,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="16">
         <f>VLOOKUP(A4,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -979,7 +979,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="16">
         <f>VLOOKUP(A11,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="42" x14ac:dyDescent="0.35">
@@ -1007,7 +1007,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="16">
         <f>VLOOKUP(A13,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="42" x14ac:dyDescent="0.35">
@@ -1087,7 +1087,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="19">
         <f ca="1">NOW()</f>
-        <v>45593.551332407405</v>
+        <v>45596.348115162036</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
@@ -1137,7 +1137,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="O4">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="s">
         <v>13</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="O11">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="s">
         <v>27</v>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="O13">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="s">
         <v>31</v>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="H19">
         <f>SUM(Táblázat3[2024.10.28])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19">
         <f>SUM(Táblázat3[2024.11.04])</f>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="O19">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/materials/AIPD/jelenlet/jelenlet_2024.xlsx
+++ b/materials/AIPD/jelenlet/jelenlet_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\AIPD\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A1723F-D3AA-4D6E-9FBA-A10AE3B6A50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B64B84-D14C-4794-A6BA-A4B64F46498B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -410,9 +410,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -430,6 +427,9 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -461,7 +461,7 @@
     <sortCondition ref="A3:A18"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="0"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2024.09.09" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.09.09])</totalsRowFormula>
     </tableColumn>
@@ -501,7 +501,7 @@
     <tableColumn id="14" xr3:uid="{B988FA89-1E4E-4372-AD4F-C4E869C0989B}" name="2024.12.09" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.12.09])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="0">
+    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="1">
       <calculatedColumnFormula>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Táblázat3[HIÁNYZÁS])</totalsRowFormula>
     </tableColumn>
@@ -1035,7 +1035,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="16">
         <f>VLOOKUP(A15,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1087,7 +1087,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="19">
         <f ca="1">NOW()</f>
-        <v>45596.348115162036</v>
+        <v>45607.502221180555</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
@@ -1137,7 +1137,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="O15">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15" t="s">
         <v>35</v>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="I19">
         <f>SUM(Táblázat3[2024.11.04])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <f>SUM(Táblázat3[2024.11.11])</f>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="O19">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/materials/AIPD/jelenlet/jelenlet_2024.xlsx
+++ b/materials/AIPD/jelenlet/jelenlet_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\AIPD\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B64B84-D14C-4794-A6BA-A4B64F46498B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71353984-B605-4190-A3FC-4451F783D218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -814,7 +814,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,7 +895,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="16">
         <f>VLOOKUP(A5,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1087,7 +1087,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="19">
         <f ca="1">NOW()</f>
-        <v>45607.502221180555</v>
+        <v>45614.415085185188</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
@@ -1137,7 +1137,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="O5">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" t="s">
         <v>15</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="J19">
         <f>SUM(Táblázat3[2024.11.11])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <f>SUM(Táblázat3[2024.11.18])</f>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="O19">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/materials/AIPD/jelenlet/jelenlet_2024.xlsx
+++ b/materials/AIPD/jelenlet/jelenlet_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\AIPD\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71353984-B605-4190-A3FC-4451F783D218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DA2A50-10AB-479F-827D-0F4044F5A6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
@@ -410,6 +410,9 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -427,9 +430,6 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -461,7 +461,7 @@
     <sortCondition ref="A3:A18"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="1"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2024.09.09" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.09.09])</totalsRowFormula>
     </tableColumn>
@@ -501,7 +501,7 @@
     <tableColumn id="14" xr3:uid="{B988FA89-1E4E-4372-AD4F-C4E869C0989B}" name="2024.12.09" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.12.09])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="1">
+    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="0">
       <calculatedColumnFormula>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Táblázat3[HIÁNYZÁS])</totalsRowFormula>
     </tableColumn>
@@ -814,7 +814,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,7 +1087,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="19">
         <f ca="1">NOW()</f>
-        <v>45614.415085185188</v>
+        <v>45620.36637314815</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
@@ -1137,7 +1137,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="N19" sqref="B19:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/materials/AIPD/jelenlet/jelenlet_2024.xlsx
+++ b/materials/AIPD/jelenlet/jelenlet_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\AIPD\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DA2A50-10AB-479F-827D-0F4044F5A6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C8AB10-CD18-4C88-B71A-BEEEE12123DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -410,9 +410,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -430,6 +427,9 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -461,7 +461,7 @@
     <sortCondition ref="A3:A18"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="0"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2024.09.09" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.09.09])</totalsRowFormula>
     </tableColumn>
@@ -501,7 +501,7 @@
     <tableColumn id="14" xr3:uid="{B988FA89-1E4E-4372-AD4F-C4E869C0989B}" name="2024.12.09" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.12.09])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="0">
+    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="1">
       <calculatedColumnFormula>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Táblázat3[HIÁNYZÁS])</totalsRowFormula>
     </tableColumn>
@@ -813,7 +813,7 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -909,7 +909,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="16">
         <f>VLOOKUP(A6,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="42" x14ac:dyDescent="0.35">
@@ -965,7 +965,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="16">
         <f>VLOOKUP(A10,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -979,7 +979,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="16">
         <f>VLOOKUP(A11,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="42" x14ac:dyDescent="0.35">
@@ -1035,7 +1035,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="16">
         <f>VLOOKUP(A15,Táblázat3[],15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1049,7 +1049,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="16">
         <f>VLOOKUP(A16,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1063,7 +1063,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="16">
         <f>VLOOKUP(A17,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1077,7 +1077,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="16">
         <f>VLOOKUP(A18,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1087,7 +1087,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="19">
         <f ca="1">NOW()</f>
-        <v>45620.36637314815</v>
+        <v>45622.36102222222</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
@@ -1133,11 +1133,11 @@
   </sheetPr>
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N19" sqref="B19:N19"/>
+      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="O6">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" t="s">
         <v>17</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="O10">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P10" t="s">
         <v>25</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="O11">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11" t="s">
         <v>27</v>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="O15">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P15" t="s">
         <v>35</v>
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="O16">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" t="s">
         <v>37</v>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1992,7 +1992,7 @@
       </c>
       <c r="O17">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P17" t="s">
         <v>39</v>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="O18">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18" t="s">
         <v>41</v>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="L19">
         <f>SUM(Táblázat3[2024.11.25])</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M19">
         <f>SUM(Táblázat3[2024.12.02])</f>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="O19">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/materials/AIPD/jelenlet/jelenlet_2024.xlsx
+++ b/materials/AIPD/jelenlet/jelenlet_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\AIPD\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C8AB10-CD18-4C88-B71A-BEEEE12123DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6DFA89-969C-4714-8841-102B9931CB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>Név</t>
   </si>
@@ -204,6 +204,9 @@
   <si>
     <t>ARTIFICIAL INTELLIGENCE IN PLANNING AND DECISIONMAKING
 ATTENDANCE SHEET - 1618</t>
+  </si>
+  <si>
+    <t>Grade</t>
   </si>
 </sst>
 </file>
@@ -408,7 +411,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -427,9 +436,6 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -455,13 +461,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}" name="Táblázat3" displayName="Táblázat3" ref="A2:P19" totalsRowCount="1" headerRowDxfId="3">
-  <autoFilter ref="A2:P18" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}" name="Táblázat3" displayName="Táblázat3" ref="A2:Q19" totalsRowCount="1" headerRowDxfId="4">
+  <autoFilter ref="A2:Q18" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:P18">
     <sortCondition ref="A3:A18"/>
   </sortState>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="0"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="3" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2024.09.09" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.09.09])</totalsRowFormula>
     </tableColumn>
@@ -506,6 +512,7 @@
       <totalsRowFormula>SUM(Táblázat3[HIÁNYZÁS])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="21" xr3:uid="{99355BC7-039B-4FC4-9826-FB67580683F4}" name="NK"/>
+    <tableColumn id="15" xr3:uid="{86071EEF-2EB7-4CF6-B90F-25804020A6DB}" name="Grade" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1035,7 +1042,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="16">
         <f>VLOOKUP(A15,Táblázat3[],15)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1087,7 +1094,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="19">
         <f ca="1">NOW()</f>
-        <v>45622.36102222222</v>
+        <v>45629.461544791666</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
@@ -1137,7 +1144,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,6 +1154,7 @@
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -1168,6 +1176,7 @@
       <c r="N1" s="22"/>
       <c r="O1" s="22"/>
       <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1217,6 +1226,9 @@
       </c>
       <c r="P2" s="17" t="s">
         <v>8</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1269,7 +1281,9 @@
       <c r="P3" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="4"/>
+      <c r="Q3" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1321,7 +1335,9 @@
       <c r="P4" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="4"/>
+      <c r="Q4" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1373,7 +1389,9 @@
       <c r="P5" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="4"/>
+      <c r="Q5" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1425,7 +1443,9 @@
       <c r="P6" t="s">
         <v>17</v>
       </c>
-      <c r="Q6" s="4"/>
+      <c r="Q6" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1477,7 +1497,9 @@
       <c r="P7" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="4"/>
+      <c r="Q7" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1529,7 +1551,9 @@
       <c r="P8" t="s">
         <v>21</v>
       </c>
-      <c r="Q8" s="4"/>
+      <c r="Q8" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1581,7 +1605,9 @@
       <c r="P9" t="s">
         <v>23</v>
       </c>
-      <c r="Q9" s="4"/>
+      <c r="Q9" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1633,7 +1659,9 @@
       <c r="P10" t="s">
         <v>25</v>
       </c>
-      <c r="Q10" s="4"/>
+      <c r="Q10" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1685,7 +1713,9 @@
       <c r="P11" t="s">
         <v>27</v>
       </c>
-      <c r="Q11" s="4"/>
+      <c r="Q11" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1737,7 +1767,9 @@
       <c r="P12" t="s">
         <v>29</v>
       </c>
-      <c r="Q12" s="4"/>
+      <c r="Q12" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1789,7 +1821,9 @@
       <c r="P13" t="s">
         <v>31</v>
       </c>
-      <c r="Q13" s="4"/>
+      <c r="Q13" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1841,7 +1875,9 @@
       <c r="P14" t="s">
         <v>33</v>
       </c>
-      <c r="Q14" s="4"/>
+      <c r="Q14" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1881,19 +1917,21 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P15" t="s">
         <v>35</v>
       </c>
-      <c r="Q15" s="4"/>
+      <c r="Q15" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1945,7 +1983,9 @@
       <c r="P16" t="s">
         <v>37</v>
       </c>
-      <c r="Q16" s="4"/>
+      <c r="Q16" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1997,7 +2037,9 @@
       <c r="P17" t="s">
         <v>39</v>
       </c>
-      <c r="Q17" s="4"/>
+      <c r="Q17" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -2049,7 +2091,9 @@
       <c r="P18" t="s">
         <v>41</v>
       </c>
-      <c r="Q18" s="4"/>
+      <c r="Q18" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
@@ -2101,7 +2145,7 @@
       </c>
       <c r="M19">
         <f>SUM(Táblázat3[2024.12.02])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
         <f>SUM(Táblázat3[2024.12.09])</f>
@@ -2109,12 +2153,12 @@
       </c>
       <c r="O19">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
